--- a/webscrapping final/Bases finales/base_2017.xlsx
+++ b/webscrapping final/Bases finales/base_2017.xlsx
@@ -1,38 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\SED---Cuantitativo\webscrapping final\Bases finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC794C5F-4D4F-4AC7-B2D2-75913B8C88CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F1CD5F-A792-4A52-A52D-C8A08A522BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="21300" yWindow="2835" windowWidth="10020" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_PAROS_UNIFICADOS_2019 (4)" sheetId="2" r:id="rId1"/>
     <sheet name="BASE_PAROS_UNIFICADOS_2019 (3)" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'BASE_PAROS_UNIFICADOS_2019 (4)'!$A$1:$N$7</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'BASE_PAROS_UNIFICADOS_2019 (4)'!$A$1:$N$8</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Consulta - BASE_PAROS_UNIFICADOS_2019 (3)" description="Conexión a la consulta 'BASE_PAROS_UNIFICADOS_2019 (3)' en el libro." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Consulta - BASE_PAROS_UNIFICADOS_2019 (3)" description="Conexión a la consulta 'BASE_PAROS_UNIFICADOS_2019 (3)' en el libro." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;BASE_PAROS_UNIFICADOS_2019 (3)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [BASE_PAROS_UNIFICADOS_2019 (3)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>fecha_inicio,fecha_fin,ciudad,organizaciones_sindicales,tipo_movilizacion,duracion_dias,razones_paro,resumen,fuentes_presentes,url_1,url_2,url_3,url_4,url_5</t>
   </si>
@@ -222,13 +222,22 @@
   </si>
   <si>
     <t>https://cut.org.co/la-cut-felicita-el-ejemplo-dado-por-los-educadores-de-colombia-en-su-valerosa-lucha/</t>
+  </si>
+  <si>
+    <t>BOLETIN_DE_PRENSA_No._30_de_2017.pdf</t>
+  </si>
+  <si>
+    <t>Presionar al Gobierno Nacional ante la falta de acuerdos en la negociación con FECODE.</t>
+  </si>
+  <si>
+    <t>Gran marcha masiva y concentración nacional, se denominó la Gran toma de Bogotá porque fecode convocó a todos los maestros del pais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +368,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -661,7 +678,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -704,13 +721,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -742,6 +762,7 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,7 +829,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DatosExternos_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="15">
     <queryTableFields count="14">
       <queryTableField id="1" name="fecha_inicio" tableColumnId="1"/>
@@ -831,23 +852,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="BASE_PAROS_UNIFICADOS_2019__3" displayName="BASE_PAROS_UNIFICADOS_2019__3" ref="A1:N7" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="BASE_PAROS_UNIFICADOS_2019__3" displayName="BASE_PAROS_UNIFICADOS_2019__3" ref="A1:N8" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" uniqueName="1" name="fecha_inicio" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" uniqueName="2" name="fecha_fin" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" uniqueName="3" name="ciudad" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" uniqueName="4" name="organizaciones_sindicales" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" uniqueName="5" name="tipo_movilizacion" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" uniqueName="6" name="duracion_dias" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="razones_paro" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" uniqueName="8" name="resumen" queryTableFieldId="8" dataDxfId="6"/>
-    <tableColumn id="9" uniqueName="9" name="fuentes_presentes" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="10" uniqueName="10" name="url_1" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" uniqueName="11" name="url_2" queryTableFieldId="11" dataDxfId="3"/>
-    <tableColumn id="12" uniqueName="12" name="url_3" queryTableFieldId="12" dataDxfId="2"/>
-    <tableColumn id="13" uniqueName="13" name="url_4" queryTableFieldId="13" dataDxfId="1"/>
-    <tableColumn id="14" uniqueName="14" name="url_5" queryTableFieldId="14" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="fecha_inicio" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="fecha_fin" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="ciudad" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="organizaciones_sindicales" queryTableFieldId="4" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="tipo_movilizacion" queryTableFieldId="5" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="duracion_dias" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="razones_paro" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="resumen" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="fuentes_presentes" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="url_1" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="url_2" queryTableFieldId="11" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="url_3" queryTableFieldId="12" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="url_4" queryTableFieldId="13" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="url_5" queryTableFieldId="14" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1149,10 +1170,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1222,40 +1245,40 @@
       <c r="B2" s="1">
         <v>42794</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1266,40 +1289,40 @@
       <c r="B3" s="1">
         <v>42866</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>41</v>
       </c>
       <c r="F3">
         <v>165</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1310,40 +1333,40 @@
       <c r="B4" s="1">
         <v>42877</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>41</v>
       </c>
       <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1354,40 +1377,40 @@
       <c r="B5" s="1">
         <v>42886</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
       <c r="F5">
-        <v>370</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1398,40 +1421,40 @@
       <c r="B6" s="1">
         <v>42903</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
       <c r="F6">
-        <v>370</v>
-      </c>
-      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1442,53 +1465,91 @@
       <c r="B7" s="1">
         <v>42906</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
       <c r="F7">
-        <v>370</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42892</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42892</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1" display="https://www.fecode.edu.co/images/boletin_prensa_2017/BOLETIN_DE_PRENSA_No._30_de_2017.pdf?utm_source=chatgpt.com" xr:uid="{B576CC62-64B7-4B96-8ACA-0B493B76B229}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
